--- a/data/fact_data/parbhani/Parbhani_Sec_Sep_19.xlsx
+++ b/data/fact_data/parbhani/Parbhani_Sec_Sep_19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitin.karmuse/Desktop/win_medicare/data/fact_data/parbhani/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5406CA2-8F83-0246-879F-98DD46E19D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17A6BDF-AA07-B045-A2A8-FDD088F945BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>Gonablok 200mg 3*10's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">          PRODUCT</t>
   </si>
   <si>
     <t>Myospaz D          5*10's</t>
@@ -290,10 +287,13 @@
     <t>Total_Price</t>
   </si>
   <si>
-    <t>shrei Laxmi venketesh</t>
+    <t>Sep</t>
   </si>
   <si>
-    <t>Sep</t>
+    <t>Shri Laxmi Venkatesh</t>
+  </si>
+  <si>
+    <t>product_name</t>
   </si>
 </sst>
 </file>
@@ -1874,9 +1874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A366A464-7A6E-AD4A-8397-F3201310EB20}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G71"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -1885,31 +1883,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="F1" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>80</v>
-      </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1928,13 +1926,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -1956,13 +1954,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -1986,13 +1984,13 @@
         <v>6734</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -2016,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -2046,13 +2044,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -2076,13 +2074,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -2106,13 +2104,13 @@
         <v>3432</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -2136,13 +2134,13 @@
         <v>7353</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -2150,7 +2148,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2162,13 +2160,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -2176,7 +2174,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2188,13 +2186,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -2218,13 +2216,13 @@
         <v>223</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -2248,13 +2246,13 @@
         <v>21533</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -2278,13 +2276,13 @@
         <v>4160</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -2292,7 +2290,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3">
         <v>6</v>
@@ -2308,13 +2306,13 @@
         <v>294</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -2322,7 +2320,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3">
         <v>21</v>
@@ -2335,13 +2333,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -2349,7 +2347,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>392</v>
@@ -2365,13 +2363,13 @@
         <v>27440</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -2379,7 +2377,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>236</v>
@@ -2395,13 +2393,13 @@
         <v>11564</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -2409,7 +2407,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2421,13 +2419,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -2435,7 +2433,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3">
         <v>19</v>
@@ -2451,13 +2449,13 @@
         <v>7581</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -2465,7 +2463,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
@@ -2481,13 +2479,13 @@
         <v>0</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -2495,7 +2493,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2504,13 +2502,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -2534,13 +2532,13 @@
         <v>15950</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -2548,7 +2546,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>1</v>
@@ -2564,13 +2562,13 @@
         <v>68</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -2594,13 +2592,13 @@
         <v>3360</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -2624,13 +2622,13 @@
         <v>6240</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -2638,7 +2636,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3">
         <v>0</v>
@@ -2654,13 +2652,13 @@
         <v>0</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -2668,7 +2666,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>2</v>
@@ -2684,13 +2682,13 @@
         <v>860</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -2698,7 +2696,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -2714,13 +2712,13 @@
         <v>0</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -2728,7 +2726,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>4</v>
@@ -2744,13 +2742,13 @@
         <v>1076</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -2758,7 +2756,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -2774,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -2788,7 +2786,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -2804,13 +2802,13 @@
         <v>0</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -2818,7 +2816,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3">
         <v>2</v>
@@ -2834,13 +2832,13 @@
         <v>1730</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -2864,13 +2862,13 @@
         <v>0</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -2878,7 +2876,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3">
         <v>3</v>
@@ -2891,13 +2889,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -2917,13 +2915,13 @@
         <v>0</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -2947,13 +2945,13 @@
         <v>1367</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -2977,13 +2975,13 @@
         <v>0</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -2991,7 +2989,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3">
         <v>0</v>
@@ -3007,13 +3005,13 @@
         <v>0</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -3037,13 +3035,13 @@
         <v>5148</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -3067,13 +3065,13 @@
         <v>1358</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -3081,7 +3079,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3">
         <v>1</v>
@@ -3097,13 +3095,13 @@
         <v>1270</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -3111,7 +3109,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>1</v>
@@ -3127,13 +3125,13 @@
         <v>1184</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -3141,7 +3139,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
         <v>0</v>
@@ -3157,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -3171,7 +3169,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3">
         <v>5</v>
@@ -3184,13 +3182,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -3198,7 +3196,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -3207,13 +3205,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -3233,13 +3231,13 @@
         <v>0</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -3263,13 +3261,13 @@
         <v>1099</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -3293,13 +3291,13 @@
         <v>669</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -3307,7 +3305,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3">
         <v>0</v>
@@ -3320,13 +3318,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -3334,7 +3332,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -3346,13 +3344,13 @@
         <v>0</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -3360,7 +3358,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3">
         <v>0</v>
@@ -3374,13 +3372,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -3388,7 +3386,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3">
         <v>0</v>
@@ -3402,13 +3400,13 @@
         <v>0</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -3416,7 +3414,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3">
         <v>46</v>
@@ -3430,13 +3428,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -3444,7 +3442,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -3456,13 +3454,13 @@
         <v>0</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -3470,7 +3468,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3">
         <v>5</v>
@@ -3484,13 +3482,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -3498,7 +3496,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -3510,13 +3508,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -3524,7 +3522,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3">
         <v>0</v>
@@ -3540,13 +3538,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -3554,7 +3552,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3">
         <v>0</v>
@@ -3570,13 +3568,13 @@
         <v>0</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -3584,7 +3582,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3">
         <v>0</v>
@@ -3600,13 +3598,13 @@
         <v>0</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -3614,7 +3612,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3">
         <v>0</v>
@@ -3630,13 +3628,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -3644,7 +3642,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3">
         <v>0</v>
@@ -3656,13 +3654,13 @@
         <v>80</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -3670,7 +3668,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -3678,13 +3676,13 @@
         <v>80</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -3692,7 +3690,7 @@
     </row>
     <row r="64" spans="1:9" ht="14">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3">
         <v>0</v>
@@ -3704,13 +3702,13 @@
         <v>125</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -3718,7 +3716,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3">
         <v>0</v>
@@ -3730,13 +3728,13 @@
         <v>127</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -3744,7 +3742,7 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3">
         <v>0</v>
@@ -3753,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="F66" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -3767,7 +3765,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -3775,13 +3773,13 @@
         <v>30</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -3789,7 +3787,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3">
         <v>10</v>
@@ -3801,13 +3799,13 @@
         <v>345</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -3815,7 +3813,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -3823,13 +3821,13 @@
         <v>48</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -3837,7 +3835,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3">
         <v>3</v>
@@ -3849,13 +3847,13 @@
         <v>170</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -3863,7 +3861,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="3">
         <v>8</v>
@@ -3872,13 +3870,13 @@
         <v>17</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71">
         <v>2019</v>
@@ -3898,9 +3896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2DC2B61-4217-A44E-B170-F7E9B5E915E9}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G71"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -3910,31 +3906,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="F1" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>80</v>
-      </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3955,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -3985,13 +3981,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -4015,13 +4011,13 @@
         <v>6370</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -4041,13 +4037,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -4067,13 +4063,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -4093,13 +4089,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -4123,13 +4119,13 @@
         <v>1232</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -4153,13 +4149,13 @@
         <v>1140</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -4167,7 +4163,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4179,13 +4175,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -4193,7 +4189,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -4205,13 +4201,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -4231,13 +4227,13 @@
         <v>0</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -4261,13 +4257,13 @@
         <v>3721</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -4287,13 +4283,13 @@
         <v>0</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -4301,7 +4297,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4313,13 +4309,13 @@
         <v>0</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -4327,7 +4323,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4336,13 +4332,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -4350,7 +4346,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>102</v>
@@ -4366,13 +4362,13 @@
         <v>9590</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -4380,7 +4376,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>83</v>
@@ -4396,13 +4392,13 @@
         <v>1813</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -4410,7 +4406,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4422,13 +4418,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -4436,7 +4432,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4448,13 +4444,13 @@
         <v>0</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -4462,7 +4458,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4474,13 +4470,13 @@
         <v>0</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -4488,7 +4484,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4497,13 +4493,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -4527,13 +4523,13 @@
         <v>3828</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -4541,7 +4537,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
@@ -4557,13 +4553,13 @@
         <v>0</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -4587,13 +4583,13 @@
         <v>960</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -4617,13 +4613,13 @@
         <v>2400</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -4631,7 +4627,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4643,13 +4639,13 @@
         <v>0</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -4657,7 +4653,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -4673,13 +4669,13 @@
         <v>0</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -4687,7 +4683,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -4701,13 +4697,13 @@
         <v>0</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -4715,7 +4711,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>1</v>
@@ -4731,13 +4727,13 @@
         <v>1076</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -4745,7 +4741,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -4761,13 +4757,13 @@
         <v>0</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -4775,7 +4771,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -4791,13 +4787,13 @@
         <v>0</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -4805,7 +4801,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
@@ -4821,13 +4817,13 @@
         <v>0</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -4851,13 +4847,13 @@
         <v>0</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -4865,7 +4861,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3">
         <v>0</v>
@@ -4878,13 +4874,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -4904,13 +4900,13 @@
         <v>0</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -4934,13 +4930,13 @@
         <v>1367</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -4960,13 +4956,13 @@
         <v>0</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -4974,7 +4970,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4986,13 +4982,13 @@
         <v>0</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -5012,13 +5008,13 @@
         <v>0</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -5038,13 +5034,13 @@
         <v>0</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -5052,7 +5048,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -5064,13 +5060,13 @@
         <v>0</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -5078,7 +5074,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
@@ -5094,13 +5090,13 @@
         <v>0</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -5108,7 +5104,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
         <v>0</v>
@@ -5124,13 +5120,13 @@
         <v>0</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -5138,7 +5134,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3">
         <v>0</v>
@@ -5151,13 +5147,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -5165,7 +5161,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -5174,13 +5170,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -5200,13 +5196,13 @@
         <v>0</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -5226,13 +5222,13 @@
         <v>0</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -5252,13 +5248,13 @@
         <v>0</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -5266,7 +5262,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3">
         <v>3</v>
@@ -5279,13 +5275,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -5293,7 +5289,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -5305,13 +5301,13 @@
         <v>0</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -5319,7 +5315,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3">
         <v>3</v>
@@ -5333,13 +5329,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -5347,7 +5343,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -5359,13 +5355,13 @@
         <v>0</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -5373,7 +5369,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -5383,13 +5379,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -5397,7 +5393,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -5409,13 +5405,13 @@
         <v>0</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -5423,7 +5419,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -5433,13 +5429,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -5447,7 +5443,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -5459,13 +5455,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -5473,7 +5469,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -5485,13 +5481,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -5499,7 +5495,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -5511,13 +5507,13 @@
         <v>0</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -5525,7 +5521,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -5537,13 +5533,13 @@
         <v>0</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -5551,7 +5547,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -5563,13 +5559,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -5577,7 +5573,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -5585,13 +5581,13 @@
         <v>80</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -5599,7 +5595,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -5607,13 +5603,13 @@
         <v>80</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -5621,7 +5617,7 @@
     </row>
     <row r="64" spans="1:9" ht="28">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -5629,13 +5625,13 @@
         <v>125</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -5643,7 +5639,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -5651,13 +5647,13 @@
         <v>127</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -5665,18 +5661,18 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="F66" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -5684,7 +5680,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -5692,13 +5688,13 @@
         <v>30</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -5706,7 +5702,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3">
         <v>8</v>
@@ -5718,13 +5714,13 @@
         <v>345</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -5732,7 +5728,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -5740,13 +5736,13 @@
         <v>48</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -5754,7 +5750,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3">
         <v>3</v>
@@ -5766,13 +5762,13 @@
         <v>170</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -5780,7 +5776,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="3">
         <v>0</v>
@@ -5789,13 +5785,13 @@
         <v>4</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71">
         <v>2019</v>
@@ -5815,9 +5811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8803B3AD-3034-1048-B0AB-2AA2336E3FB4}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G71"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -5827,31 +5821,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="F1" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>80</v>
-      </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5868,13 +5862,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -5894,13 +5888,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -5924,13 +5918,13 @@
         <v>3367</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -5950,13 +5944,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -5976,13 +5970,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -6002,13 +5996,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -6032,13 +6026,13 @@
         <v>3256</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -6062,13 +6056,13 @@
         <v>2394</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -6076,7 +6070,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -6092,13 +6086,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -6106,7 +6100,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3">
         <v>0</v>
@@ -6122,13 +6116,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -6148,13 +6142,13 @@
         <v>0</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -6178,13 +6172,13 @@
         <v>8113</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -6208,13 +6202,13 @@
         <v>2080</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -6222,7 +6216,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -6238,13 +6232,13 @@
         <v>294</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -6252,7 +6246,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
@@ -6265,13 +6259,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -6279,7 +6273,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>316</v>
@@ -6295,13 +6289,13 @@
         <v>4270</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -6309,7 +6303,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>168</v>
@@ -6325,13 +6319,13 @@
         <v>3381</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -6339,7 +6333,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
@@ -6355,13 +6349,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -6369,7 +6363,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3">
         <v>0</v>
@@ -6385,13 +6379,13 @@
         <v>0</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -6399,7 +6393,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3">
         <v>3</v>
@@ -6415,13 +6409,13 @@
         <v>5571</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -6429,7 +6423,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6438,13 +6432,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -6468,13 +6462,13 @@
         <v>6380</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -6482,7 +6476,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>4</v>
@@ -6498,13 +6492,13 @@
         <v>272</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -6528,13 +6522,13 @@
         <v>720</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -6558,13 +6552,13 @@
         <v>4800</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -6572,7 +6566,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3">
@@ -6586,13 +6580,13 @@
         <v>4150</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -6600,7 +6594,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -6616,13 +6610,13 @@
         <v>2150</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -6630,7 +6624,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -6646,13 +6640,13 @@
         <v>0</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -6660,7 +6654,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>4</v>
@@ -6676,13 +6670,13 @@
         <v>538</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -6690,7 +6684,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
         <v>2</v>
@@ -6706,13 +6700,13 @@
         <v>1266</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -6720,7 +6714,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3">
         <v>0</v>
@@ -6736,13 +6730,13 @@
         <v>2367</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -6750,7 +6744,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
@@ -6766,13 +6760,13 @@
         <v>2595</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -6796,13 +6790,13 @@
         <v>0</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -6810,7 +6804,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3">
         <v>0</v>
@@ -6823,13 +6817,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -6849,13 +6843,13 @@
         <v>0</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -6879,13 +6873,13 @@
         <v>1367</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -6909,13 +6903,13 @@
         <v>1910</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -6923,7 +6917,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3">
         <v>0</v>
@@ -6939,13 +6933,13 @@
         <v>504</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -6969,13 +6963,13 @@
         <v>3861</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -6999,13 +6993,13 @@
         <v>1358</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -7013,7 +7007,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3">
         <v>1</v>
@@ -7029,13 +7023,13 @@
         <v>1270</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -7043,7 +7037,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
@@ -7059,13 +7053,13 @@
         <v>5920</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -7073,7 +7067,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
         <v>0</v>
@@ -7089,13 +7083,13 @@
         <v>755</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -7103,7 +7097,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3">
         <v>1</v>
@@ -7116,13 +7110,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -7130,7 +7124,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -7139,13 +7133,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -7165,13 +7159,13 @@
         <v>0</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -7195,13 +7189,13 @@
         <v>942</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -7225,13 +7219,13 @@
         <v>669</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -7239,7 +7233,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3">
         <v>0</v>
@@ -7252,13 +7246,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -7266,7 +7260,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -7278,13 +7272,13 @@
         <v>0</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -7292,7 +7286,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3">
         <v>1</v>
@@ -7306,13 +7300,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -7320,7 +7314,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -7332,13 +7326,13 @@
         <v>0</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -7346,7 +7340,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3">
         <v>51</v>
@@ -7360,13 +7354,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -7374,7 +7368,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -7386,13 +7380,13 @@
         <v>0</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -7400,7 +7394,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3">
         <v>0</v>
@@ -7414,13 +7408,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -7428,7 +7422,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -7440,13 +7434,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -7454,7 +7448,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3">
         <v>0</v>
@@ -7470,13 +7464,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -7484,7 +7478,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3">
         <v>0</v>
@@ -7500,13 +7494,13 @@
         <v>0</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -7514,7 +7508,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3">
         <v>0</v>
@@ -7530,13 +7524,13 @@
         <v>0</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -7544,7 +7538,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3">
         <v>0</v>
@@ -7560,13 +7554,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -7574,7 +7568,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3">
         <v>0</v>
@@ -7586,13 +7580,13 @@
         <v>80</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -7600,7 +7594,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -7608,13 +7602,13 @@
         <v>80</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -7622,7 +7616,7 @@
     </row>
     <row r="64" spans="1:9" ht="28">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3">
         <v>0</v>
@@ -7634,13 +7628,13 @@
         <v>125</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -7648,7 +7642,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3">
         <v>0</v>
@@ -7660,13 +7654,13 @@
         <v>127</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -7674,7 +7668,7 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3">
         <v>0</v>
@@ -7683,13 +7677,13 @@
         <v>0</v>
       </c>
       <c r="F66" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -7697,7 +7691,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -7705,13 +7699,13 @@
         <v>30</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -7719,7 +7713,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3">
         <v>2</v>
@@ -7731,13 +7725,13 @@
         <v>345</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -7745,7 +7739,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3">
         <v>0</v>
@@ -7757,13 +7751,13 @@
         <v>48</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -7771,7 +7765,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3">
         <v>0</v>
@@ -7783,13 +7777,13 @@
         <v>170</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -7797,7 +7791,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="3">
         <v>0</v>
@@ -7806,13 +7800,13 @@
         <v>6</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71">
         <v>2019</v>
@@ -7832,9 +7826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81450CD-4BCC-3B48-951B-DD26CC02B66F}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G71"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -7843,31 +7835,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="F1" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>80</v>
-      </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -7884,13 +7876,13 @@
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -7910,13 +7902,13 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -7940,13 +7932,13 @@
         <v>1092</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -7968,13 +7960,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -7998,13 +7990,13 @@
         <v>130</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -8024,13 +8016,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -8054,13 +8046,13 @@
         <v>0</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -8084,13 +8076,13 @@
         <v>2109</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -8098,7 +8090,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -8110,13 +8102,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -8124,7 +8116,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -8136,13 +8128,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -8166,13 +8158,13 @@
         <v>892</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -8196,13 +8188,13 @@
         <v>6893</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -8226,13 +8218,13 @@
         <v>1768</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -8240,7 +8232,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
@@ -8256,13 +8248,13 @@
         <v>147</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -8270,7 +8262,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3">
         <v>10</v>
@@ -8283,13 +8275,13 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -8297,7 +8289,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>202</v>
@@ -8313,13 +8305,13 @@
         <v>10990</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -8327,7 +8319,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3">
         <v>132</v>
@@ -8343,13 +8335,13 @@
         <v>4312</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -8357,7 +8349,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -8369,13 +8361,13 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -8383,7 +8375,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3">
         <v>7</v>
@@ -8399,13 +8391,13 @@
         <v>7581</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -8413,7 +8405,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
@@ -8429,13 +8421,13 @@
         <v>2476</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -8443,7 +8435,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -8452,13 +8444,13 @@
         <v>0</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -8482,13 +8474,13 @@
         <v>1914</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -8496,7 +8488,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>2</v>
@@ -8512,13 +8504,13 @@
         <v>136</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -8542,13 +8534,13 @@
         <v>1200</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -8572,13 +8564,13 @@
         <v>3840</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -8586,7 +8578,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3">
         <v>0</v>
@@ -8602,13 +8594,13 @@
         <v>2490</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -8616,7 +8608,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>0</v>
@@ -8632,13 +8624,13 @@
         <v>0</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -8646,7 +8638,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
         <v>0</v>
@@ -8662,13 +8654,13 @@
         <v>2880</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -8676,7 +8668,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3">
         <v>6</v>
@@ -8692,13 +8684,13 @@
         <v>2421</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -8706,7 +8698,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3">
         <v>2</v>
@@ -8722,13 +8714,13 @@
         <v>1266</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -8736,7 +8728,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3">
         <v>1</v>
@@ -8752,13 +8744,13 @@
         <v>3945</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -8766,7 +8758,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3">
         <v>2</v>
@@ -8782,13 +8774,13 @@
         <v>1730</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -8812,13 +8804,13 @@
         <v>1726</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -8826,7 +8818,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3">
         <v>0</v>
@@ -8839,13 +8831,13 @@
         <v>0</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -8865,13 +8857,13 @@
         <v>0</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -8895,13 +8887,13 @@
         <v>2734</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -8925,13 +8917,13 @@
         <v>955</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -8939,7 +8931,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3">
         <v>0</v>
@@ -8955,13 +8947,13 @@
         <v>336</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -8985,13 +8977,13 @@
         <v>6435</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -9013,13 +9005,13 @@
         <v>1358</v>
       </c>
       <c r="F41" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -9027,7 +9019,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3">
@@ -9041,13 +9033,13 @@
         <v>3810</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -9055,7 +9047,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
@@ -9071,13 +9063,13 @@
         <v>4736</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -9085,7 +9077,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
         <v>0</v>
@@ -9101,13 +9093,13 @@
         <v>0</v>
       </c>
       <c r="F44" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -9115,7 +9107,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3">
         <v>0</v>
@@ -9128,13 +9120,13 @@
         <v>0</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -9142,7 +9134,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -9151,13 +9143,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -9177,13 +9169,13 @@
         <v>0</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -9207,13 +9199,13 @@
         <v>1099</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -9237,13 +9229,13 @@
         <v>1115</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -9251,7 +9243,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3">
         <v>0</v>
@@ -9264,13 +9256,13 @@
         <v>0</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -9278,7 +9270,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -9290,13 +9282,13 @@
         <v>0</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -9304,7 +9296,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3">
         <v>0</v>
@@ -9318,13 +9310,13 @@
         <v>0</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -9332,7 +9324,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -9344,13 +9336,13 @@
         <v>0</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -9358,7 +9350,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3">
         <v>3</v>
@@ -9372,13 +9364,13 @@
         <v>0</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -9386,7 +9378,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -9398,13 +9390,13 @@
         <v>0</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -9412,7 +9404,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3">
         <v>0</v>
@@ -9426,13 +9418,13 @@
         <v>0</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -9440,7 +9432,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -9452,13 +9444,13 @@
         <v>0</v>
       </c>
       <c r="F57" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -9466,7 +9458,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -9478,13 +9470,13 @@
         <v>0</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -9492,7 +9484,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -9504,13 +9496,13 @@
         <v>896</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -9518,7 +9510,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -9530,13 +9522,13 @@
         <v>3150</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -9544,7 +9536,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -9556,13 +9548,13 @@
         <v>0</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -9570,7 +9562,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -9578,13 +9570,13 @@
         <v>80</v>
       </c>
       <c r="F62" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -9592,7 +9584,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -9600,13 +9592,13 @@
         <v>80</v>
       </c>
       <c r="F63" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -9614,7 +9606,7 @@
     </row>
     <row r="64" spans="1:9" ht="28">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -9622,13 +9614,13 @@
         <v>125</v>
       </c>
       <c r="F64" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -9636,7 +9628,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -9644,13 +9636,13 @@
         <v>127</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -9658,18 +9650,18 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="F66" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -9677,7 +9669,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -9685,13 +9677,13 @@
         <v>30</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -9699,7 +9691,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3">
         <v>13</v>
@@ -9711,13 +9703,13 @@
         <v>345</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -9725,7 +9717,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -9733,13 +9725,13 @@
         <v>48</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -9747,7 +9739,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3">
         <v>0</v>
@@ -9759,13 +9751,13 @@
         <v>170</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -9773,7 +9765,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="3">
         <v>2</v>
@@ -9782,13 +9774,13 @@
         <v>14</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71">
         <v>2019</v>
@@ -9808,9 +9800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E5807C-23FC-5B42-AF19-B80F265C4F84}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -9820,31 +9810,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="25" t="s">
-        <v>83</v>
-      </c>
       <c r="F1" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="25" t="s">
-        <v>80</v>
-      </c>
       <c r="H1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -9864,10 +9854,10 @@
         <v>84</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2">
         <v>2019</v>
@@ -9890,10 +9880,10 @@
         <v>84</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I3">
         <v>2019</v>
@@ -9920,10 +9910,10 @@
         <v>84</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>2019</v>
@@ -9946,10 +9936,10 @@
         <v>84</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <v>2019</v>
@@ -9972,10 +9962,10 @@
         <v>84</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I6">
         <v>2019</v>
@@ -9998,10 +9988,10 @@
         <v>84</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I7">
         <v>2019</v>
@@ -10024,10 +10014,10 @@
         <v>84</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8">
         <v>2019</v>
@@ -10050,10 +10040,10 @@
         <v>84</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I9">
         <v>2019</v>
@@ -10061,7 +10051,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -10076,10 +10066,10 @@
         <v>84</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H10" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I10">
         <v>2019</v>
@@ -10087,7 +10077,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -10102,10 +10092,10 @@
         <v>84</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11">
         <v>2019</v>
@@ -10128,10 +10118,10 @@
         <v>84</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I12">
         <v>2019</v>
@@ -10158,10 +10148,10 @@
         <v>84</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I13">
         <v>2019</v>
@@ -10184,10 +10174,10 @@
         <v>84</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I14">
         <v>2019</v>
@@ -10195,7 +10185,7 @@
     </row>
     <row r="15" spans="1:9" ht="14">
       <c r="A15" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -10210,10 +10200,10 @@
         <v>84</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>2019</v>
@@ -10221,7 +10211,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -10233,10 +10223,10 @@
         <v>84</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I16">
         <v>2019</v>
@@ -10244,7 +10234,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
@@ -10263,10 +10253,10 @@
         <v>84</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I17">
         <v>2019</v>
@@ -10274,7 +10264,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -10289,10 +10279,10 @@
         <v>84</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I18">
         <v>2019</v>
@@ -10300,7 +10290,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -10315,10 +10305,10 @@
         <v>84</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I19">
         <v>2019</v>
@@ -10326,7 +10316,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -10341,10 +10331,10 @@
         <v>84</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20">
         <v>2019</v>
@@ -10352,7 +10342,7 @@
     </row>
     <row r="21" spans="1:9" ht="14">
       <c r="A21" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -10367,10 +10357,10 @@
         <v>84</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21">
         <v>2019</v>
@@ -10378,7 +10368,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -10390,10 +10380,10 @@
         <v>84</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I22">
         <v>2019</v>
@@ -10418,10 +10408,10 @@
         <v>84</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I23">
         <v>2019</v>
@@ -10429,7 +10419,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
@@ -10448,10 +10438,10 @@
         <v>84</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I24">
         <v>2019</v>
@@ -10478,10 +10468,10 @@
         <v>84</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I25">
         <v>2019</v>
@@ -10508,10 +10498,10 @@
         <v>84</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I26">
         <v>2019</v>
@@ -10519,7 +10509,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -10534,10 +10524,10 @@
         <v>84</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27">
         <v>2019</v>
@@ -10545,7 +10535,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -10560,10 +10550,10 @@
         <v>84</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>2019</v>
@@ -10571,7 +10561,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -10586,10 +10576,10 @@
         <v>84</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I29">
         <v>2019</v>
@@ -10597,7 +10587,7 @@
     </row>
     <row r="30" spans="1:9" ht="14">
       <c r="A30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -10612,10 +10602,10 @@
         <v>84</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I30">
         <v>2019</v>
@@ -10623,7 +10613,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -10638,10 +10628,10 @@
         <v>84</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31">
         <v>2019</v>
@@ -10649,7 +10639,7 @@
     </row>
     <row r="32" spans="1:9" ht="14">
       <c r="A32" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -10664,10 +10654,10 @@
         <v>84</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I32">
         <v>2019</v>
@@ -10675,7 +10665,7 @@
     </row>
     <row r="33" spans="1:9" ht="14">
       <c r="A33" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -10690,10 +10680,10 @@
         <v>84</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I33">
         <v>2019</v>
@@ -10716,10 +10706,10 @@
         <v>84</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I34">
         <v>2019</v>
@@ -10727,7 +10717,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -10739,10 +10729,10 @@
         <v>84</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I35">
         <v>2019</v>
@@ -10765,10 +10755,10 @@
         <v>84</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I36">
         <v>2019</v>
@@ -10791,10 +10781,10 @@
         <v>84</v>
       </c>
       <c r="G37" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H37" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I37">
         <v>2019</v>
@@ -10817,10 +10807,10 @@
         <v>84</v>
       </c>
       <c r="G38" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H38" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I38">
         <v>2019</v>
@@ -10828,7 +10818,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3">
         <v>0</v>
@@ -10847,10 +10837,10 @@
         <v>84</v>
       </c>
       <c r="G39" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I39">
         <v>2019</v>
@@ -10873,10 +10863,10 @@
         <v>84</v>
       </c>
       <c r="G40" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I40">
         <v>2019</v>
@@ -10899,10 +10889,10 @@
         <v>84</v>
       </c>
       <c r="G41" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I41">
         <v>2019</v>
@@ -10910,7 +10900,7 @@
     </row>
     <row r="42" spans="1:9" ht="14">
       <c r="A42" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -10925,10 +10915,10 @@
         <v>84</v>
       </c>
       <c r="G42" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H42" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I42">
         <v>2019</v>
@@ -10936,7 +10926,7 @@
     </row>
     <row r="43" spans="1:9" ht="14">
       <c r="A43" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -10951,10 +10941,10 @@
         <v>84</v>
       </c>
       <c r="G43" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H43" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I43">
         <v>2019</v>
@@ -10962,7 +10952,7 @@
     </row>
     <row r="44" spans="1:9" ht="14">
       <c r="A44" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -10977,10 +10967,10 @@
         <v>84</v>
       </c>
       <c r="G44" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I44">
         <v>2019</v>
@@ -10988,7 +10978,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -11000,10 +10990,10 @@
         <v>84</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H45" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I45">
         <v>2019</v>
@@ -11011,7 +11001,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -11023,10 +11013,10 @@
         <v>84</v>
       </c>
       <c r="G46" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H46" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I46">
         <v>2019</v>
@@ -11049,10 +11039,10 @@
         <v>84</v>
       </c>
       <c r="G47" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H47" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I47">
         <v>2019</v>
@@ -11075,10 +11065,10 @@
         <v>84</v>
       </c>
       <c r="G48" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H48" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I48">
         <v>2019</v>
@@ -11101,10 +11091,10 @@
         <v>84</v>
       </c>
       <c r="G49" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H49" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49">
         <v>2019</v>
@@ -11112,7 +11102,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -11124,10 +11114,10 @@
         <v>84</v>
       </c>
       <c r="G50" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H50" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I50">
         <v>2019</v>
@@ -11135,7 +11125,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -11150,10 +11140,10 @@
         <v>84</v>
       </c>
       <c r="G51" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H51" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I51">
         <v>2019</v>
@@ -11161,7 +11151,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -11174,10 +11164,10 @@
         <v>84</v>
       </c>
       <c r="G52" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52">
         <v>2019</v>
@@ -11185,7 +11175,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -11200,10 +11190,10 @@
         <v>84</v>
       </c>
       <c r="G53" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I53">
         <v>2019</v>
@@ -11211,7 +11201,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -11224,10 +11214,10 @@
         <v>84</v>
       </c>
       <c r="G54" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H54" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I54">
         <v>2019</v>
@@ -11235,7 +11225,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -11250,10 +11240,10 @@
         <v>84</v>
       </c>
       <c r="G55" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H55" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I55">
         <v>2019</v>
@@ -11261,7 +11251,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -11274,10 +11264,10 @@
         <v>84</v>
       </c>
       <c r="G56" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I56">
         <v>2019</v>
@@ -11285,7 +11275,7 @@
     </row>
     <row r="57" spans="1:9" ht="14">
       <c r="A57" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -11300,10 +11290,10 @@
         <v>84</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H57" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I57">
         <v>2019</v>
@@ -11311,7 +11301,7 @@
     </row>
     <row r="58" spans="1:9" ht="14">
       <c r="A58" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -11326,10 +11316,10 @@
         <v>84</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H58" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I58">
         <v>2019</v>
@@ -11337,7 +11327,7 @@
     </row>
     <row r="59" spans="1:9" ht="14">
       <c r="A59" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -11352,10 +11342,10 @@
         <v>84</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H59" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I59">
         <v>2019</v>
@@ -11363,7 +11353,7 @@
     </row>
     <row r="60" spans="1:9" ht="14">
       <c r="A60" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -11378,10 +11368,10 @@
         <v>84</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I60">
         <v>2019</v>
@@ -11389,7 +11379,7 @@
     </row>
     <row r="61" spans="1:9" ht="14">
       <c r="A61" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -11404,10 +11394,10 @@
         <v>84</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H61" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I61">
         <v>2019</v>
@@ -11415,7 +11405,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -11426,10 +11416,10 @@
         <v>84</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H62" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I62">
         <v>2019</v>
@@ -11437,7 +11427,7 @@
     </row>
     <row r="63" spans="1:9" ht="14">
       <c r="A63" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -11448,10 +11438,10 @@
         <v>84</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H63" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I63">
         <v>2019</v>
@@ -11459,7 +11449,7 @@
     </row>
     <row r="64" spans="1:9" ht="28">
       <c r="A64" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -11470,10 +11460,10 @@
         <v>84</v>
       </c>
       <c r="G64" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H64" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I64">
         <v>2019</v>
@@ -11481,7 +11471,7 @@
     </row>
     <row r="65" spans="1:9" ht="14">
       <c r="A65" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -11492,10 +11482,10 @@
         <v>84</v>
       </c>
       <c r="G65" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H65" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I65">
         <v>2019</v>
@@ -11503,7 +11493,7 @@
     </row>
     <row r="66" spans="1:9" ht="14">
       <c r="A66" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -11511,10 +11501,10 @@
         <v>84</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I66">
         <v>2019</v>
@@ -11522,7 +11512,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -11533,10 +11523,10 @@
         <v>84</v>
       </c>
       <c r="G67" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H67" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I67">
         <v>2019</v>
@@ -11544,7 +11534,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -11555,10 +11545,10 @@
         <v>84</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H68" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I68">
         <v>2019</v>
@@ -11566,7 +11556,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -11577,10 +11567,10 @@
         <v>84</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H69" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I69">
         <v>2019</v>
@@ -11588,7 +11578,7 @@
     </row>
     <row r="70" spans="1:9" ht="14">
       <c r="A70" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -11599,10 +11589,10 @@
         <v>84</v>
       </c>
       <c r="G70" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H70" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I70">
         <v>2019</v>
@@ -11610,7 +11600,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="24">
         <v>0</v>
@@ -11622,10 +11612,10 @@
         <v>84</v>
       </c>
       <c r="G71" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H71" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I71">
         <v>2019</v>
